--- a/data/download_SH512760.xlsx
+++ b/data/download_SH512760.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1424"/>
+  <dimension ref="A1:F1426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34617,6 +34617,54 @@
         <v>1.157</v>
       </c>
     </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>20250424</t>
+        </is>
+      </c>
+      <c r="B1425" t="inlineStr">
+        <is>
+          <t>SH512760</t>
+        </is>
+      </c>
+      <c r="C1425" t="n">
+        <v>1.152</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>1.167</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>1.168</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>1.148</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="B1426" t="inlineStr">
+        <is>
+          <t>SH512760</t>
+        </is>
+      </c>
+      <c r="C1426" t="n">
+        <v>1.151</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>1.152</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH512760.xlsx
+++ b/data/download_SH512760.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1426"/>
+  <dimension ref="A1:F1431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34665,6 +34665,126 @@
         <v>1.14</v>
       </c>
     </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>20250428</t>
+        </is>
+      </c>
+      <c r="B1427" t="inlineStr">
+        <is>
+          <t>SH512760</t>
+        </is>
+      </c>
+      <c r="C1427" t="n">
+        <v>1.152</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>1.147</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>1.143</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>20250429</t>
+        </is>
+      </c>
+      <c r="B1428" t="inlineStr">
+        <is>
+          <t>SH512760</t>
+        </is>
+      </c>
+      <c r="C1428" t="n">
+        <v>1.163</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>1.165</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>1.144</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>20250430</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>SH512760</t>
+        </is>
+      </c>
+      <c r="C1429" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>1.162</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>1.178</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>1.159</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>20250506</t>
+        </is>
+      </c>
+      <c r="B1430" t="inlineStr">
+        <is>
+          <t>SH512760</t>
+        </is>
+      </c>
+      <c r="C1430" t="n">
+        <v>1.192</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>1.193</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>1.177</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>20250507</t>
+        </is>
+      </c>
+      <c r="B1431" t="inlineStr">
+        <is>
+          <t>SH512760</t>
+        </is>
+      </c>
+      <c r="C1431" t="n">
+        <v>1.188</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>1.206</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>1.211</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>1.178</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
